--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/产成品.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/产成品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>297.2712</v>
-      </c>
-      <c r="C2" t="n">
-        <v>425.42621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.09914000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.20688</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.66409</v>
-      </c>
-      <c r="G2" t="n">
-        <v>441.83594</v>
-      </c>
-      <c r="H2" t="n">
-        <v>72.06576</v>
-      </c>
-      <c r="I2" t="n">
-        <v>189.95496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>44.49547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>137.30145</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.08296</v>
-      </c>
-      <c r="M2" t="n">
-        <v>34.77874</v>
-      </c>
-      <c r="N2" t="n">
-        <v>401.54115</v>
-      </c>
-      <c r="O2" t="n">
-        <v>141.93607</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.11577</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>169.29274</v>
-      </c>
-      <c r="R2" t="n">
-        <v>54.04872</v>
-      </c>
-      <c r="S2" t="n">
-        <v>14.55668</v>
-      </c>
-      <c r="T2" t="n">
-        <v>107.60465</v>
-      </c>
-      <c r="U2" t="n">
-        <v>51.15408</v>
-      </c>
-      <c r="V2" t="n">
-        <v>8.64057</v>
-      </c>
-      <c r="W2" t="n">
-        <v>108.70961</v>
-      </c>
-      <c r="X2" t="n">
-        <v>22.72291</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>457.09343</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>458.64915</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>95.92386999999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>169.79991</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>34.35999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>553.66445</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.66619</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6293.16771</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151.68327</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>228.39187</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>375.0175</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>32.22308</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>101.88426</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>226.91348</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>151.24913</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>290.79513</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13.85083</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.08631</v>
-      </c>
-      <c r="C3" t="n">
-        <v>468.27219</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.56437</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.19889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75.86099</v>
-      </c>
-      <c r="G3" t="n">
-        <v>452.71862</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70.18659</v>
-      </c>
-      <c r="I3" t="n">
-        <v>207.88142</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46.16706</v>
-      </c>
-      <c r="K3" t="n">
-        <v>144.62501</v>
-      </c>
-      <c r="L3" t="n">
-        <v>33.23281</v>
-      </c>
-      <c r="M3" t="n">
-        <v>40.58335</v>
-      </c>
-      <c r="N3" t="n">
-        <v>420.62832</v>
-      </c>
-      <c r="O3" t="n">
-        <v>163.95601</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25.06163</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>180.76674</v>
-      </c>
-      <c r="R3" t="n">
-        <v>57.34715</v>
-      </c>
-      <c r="S3" t="n">
-        <v>12.59078</v>
-      </c>
-      <c r="T3" t="n">
-        <v>109.79664</v>
-      </c>
-      <c r="U3" t="n">
-        <v>58.73074</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.03213</v>
-      </c>
-      <c r="W3" t="n">
-        <v>95.40419</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12.43275</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>462.63304</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>511.17363</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>104.03434</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>154.67174</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>43.23759</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>616.55269</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2.19212</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6635.00354</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151.25885</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>238.71269</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>407.6367</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>33.21495</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>109.02691</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>244.63694</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>151.7506</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>308.42333</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13.1869</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>322.07215</v>
-      </c>
-      <c r="C4" t="n">
-        <v>536.3312100000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87.32519000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9636400000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>82.7162</v>
-      </c>
-      <c r="G4" t="n">
-        <v>473.96955</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60.17614</v>
-      </c>
-      <c r="I4" t="n">
-        <v>228.86147</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.83937</v>
-      </c>
-      <c r="K4" t="n">
-        <v>164.30649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32.79708</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44.49214</v>
-      </c>
-      <c r="N4" t="n">
-        <v>469.37834</v>
-      </c>
-      <c r="O4" t="n">
-        <v>154.04685</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21.63622</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>185.59605</v>
-      </c>
-      <c r="R4" t="n">
-        <v>58.28682</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12.57868</v>
-      </c>
-      <c r="T4" t="n">
-        <v>107.64084</v>
-      </c>
-      <c r="U4" t="n">
-        <v>61.18428</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6.03262</v>
-      </c>
-      <c r="W4" t="n">
-        <v>92.83378999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.47666</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>535.20356</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>518.08299</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>101.60834</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>152.80525</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>38.30156</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>575.98278</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.1633</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6944.33129</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>159.75842</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>249.70548</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>419.83274</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34.27036</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>122.84557</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>264.68162</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>157.47898</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>300.24659</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15.72214</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
